--- a/data/接口自动化测试.xlsx
+++ b/data/接口自动化测试.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -55,83 +55,68 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -153,6 +138,13 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -171,6 +163,22 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -178,7 +186,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -188,21 +196,6 @@
       <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="JetBrains Mono"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF008080"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="34">
@@ -220,187 +213,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +404,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,32 +431,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,8 +460,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,27 +470,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,10 +512,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="10" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -531,137 +524,137 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="21" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="13" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="20" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="20" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="18" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="22" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="22" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="23" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,9 +663,6 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -1101,7 +1091,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1181,7 +1171,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" s="7">
+    <row customHeight="1" ht="40.5" r="2" s="6">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -1200,7 +1190,7 @@
           <t>首页</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>http://49.235.168.69:8000/?format=json</t>
         </is>
@@ -1215,14 +1205,14 @@
           <t>json</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>{"Accept": "text/html,application/xhtml+xml,application/xml;q=0.9,image/avif,image/webp,image/apng,*/*;q=0.8,application/signed-exchange;v=b3;q=0.9","Accept-Encoding": "gzip, deflate","Accept-Language": "zh-CN,zh;q=0.9","Cache-Control": "max-age=0","Connection": "keep-alive","Host": "49.235.168.69:8000","Upgrade-Insecure-Requests": "1","User-Agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/93.0.4577.63 Safari/537.36"}</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>$.data.goods=http://49.235.168.69:8000/goods/?format=json</t>
+          <t>$.goods==http://49.235.168.69:8000/goods/?format=json</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -1230,8 +1220,13 @@
           <t>Y</t>
         </is>
       </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
-    <row customHeight="1" ht="67.5" r="3" s="7">
+    <row customHeight="1" ht="67.5" r="3" s="6">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -1265,14 +1260,14 @@
           <t>json</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>{"Accept": "text/html,application/xhtml+xml,application/xml;q=0.9,image/avif,image/webp,image/apng,*/*;q=0.8,application/signed-exchange;v=b3;q=0.9","Accept-Encoding": "gzip, deflate","Accept-Language": "zh-CN,zh;q=0.9","Cache-Control": "max-age=0","Connection": "keep-alive","Host": "49.235.168.69:8000","Upgrade-Insecure-Requests": "1","User-Agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/93.0.4577.63 Safari/537.36"}</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>$.data.count=52,$.data.next=http://49.235.168.69:8000/goods/?format=json&amp;page=2</t>
+          <t>$.count==52,$.previous==None</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -1280,8 +1275,13 @@
           <t>Y</t>
         </is>
       </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
-    <row customHeight="1" ht="229.5" r="4" s="7">
+    <row customHeight="1" ht="229.5" r="4" s="6">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -1320,7 +1320,7 @@
           <t>{"csrftoken": "09qw5mjj2he5JfoZhxqEum5DvTyMQthuaNxkURdTxwqtTnVTXYzHfhEVxm7pxt3s","sessionid": "41vkdimhz09fy4bzu7r8uzw2pbfmnfaw"}</t>
         </is>
       </c>
-      <c r="I4" s="6" t="n"/>
+      <c r="I4" s="5" t="n"/>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>Y</t>
@@ -1333,25 +1333,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="I5" s="6" t="n"/>
+      <c r="I5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="I6" s="6" t="n"/>
+      <c r="I6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="I7" s="6" t="n"/>
+      <c r="I7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="I8" s="6" t="n"/>
+      <c r="I8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="I9" s="6" t="n"/>
+      <c r="I9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="I10" s="6" t="n"/>
+      <c r="I10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="I11" s="4" t="n"/>
+      <c r="I11" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
